--- a/uploads/급여_리스.xlsx
+++ b/uploads/급여_리스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pdata\ojy-hmtaxi-erp\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8842B9E-CA00-4BA5-9B25-CD64105E3B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF88B25-1B9F-4977-AF3A-748210B0462E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="01월" sheetId="1" r:id="rId1"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>드라이버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +125,10 @@
   </si>
   <si>
     <t>김0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852D1C01-E82A-4AB0-8EA9-B4D0C83AA06B}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -512,19 +512,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -547,7 +547,7 @@
         <v>6000</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -940,26 +940,26 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -1361,27 +1361,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19920E-7AFD-40A6-9B67-699BFAF13CB9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -1784,26 +1784,26 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:I14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -2206,26 +2206,26 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -2641,26 +2641,26 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:I14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -3062,27 +3062,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CA51A2-FDE1-4B09-94BA-B1E3BA3CFFE9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -3105,7 +3105,7 @@
         <v>6000</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -3473,26 +3473,26 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
@@ -3894,27 +3894,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B00F72-7A88-4899-8CE5-F67B1C803F3E}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>

--- a/uploads/급여_리스.xlsx
+++ b/uploads/급여_리스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pdata\ojy-hmtaxi-erp\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF88B25-1B9F-4977-AF3A-748210B0462E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D249F-BDFF-4176-9664-F55CA7554B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="11" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="01월" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="43">
   <si>
     <t>i6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,16 +120,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김김001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김0011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김13</t>
+  </si>
+  <si>
+    <t>i6</t>
+  </si>
+  <si>
+    <t>김14</t>
+  </si>
+  <si>
+    <t>김15</t>
+  </si>
+  <si>
+    <t>김16</t>
+  </si>
+  <si>
+    <t>김17</t>
+  </si>
+  <si>
+    <t>김18</t>
+  </si>
+  <si>
+    <t>김19</t>
+  </si>
+  <si>
+    <t>김20</t>
+  </si>
+  <si>
+    <t>김21</t>
+  </si>
+  <si>
+    <t>김22</t>
+  </si>
+  <si>
+    <t>김23</t>
+  </si>
+  <si>
+    <t>김24</t>
+  </si>
+  <si>
+    <t>김25</t>
+  </si>
+  <si>
+    <t>김26</t>
+  </si>
+  <si>
+    <t>김27</t>
+  </si>
+  <si>
+    <t>김28</t>
   </si>
 </sst>
 </file>
@@ -502,15 +549,15 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -518,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -539,7 +586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -547,7 +594,7 @@
         <v>6000</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -568,7 +615,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -597,7 +644,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -626,7 +673,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -655,7 +702,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -684,7 +731,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -713,7 +760,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -742,7 +789,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -771,7 +818,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -800,7 +847,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -829,7 +876,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -858,7 +905,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -887,7 +934,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -928,7 +975,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,12 +987,12 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -953,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -974,7 +1021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>11</v>
       </c>
@@ -1003,7 +1050,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11</v>
       </c>
@@ -1032,7 +1079,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>11</v>
       </c>
@@ -1061,7 +1108,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -1090,7 +1137,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -1119,7 +1166,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>11</v>
       </c>
@@ -1148,7 +1195,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -1177,7 +1224,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -1206,7 +1253,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -1235,7 +1282,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1264,7 +1311,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1293,7 +1340,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1322,7 +1369,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1361,13 +1408,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE19920E-7AFD-40A6-9B67-699BFAF13CB9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1375,7 +1422,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -1396,7 +1443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -1425,7 +1472,7 @@
         <v>570240</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -1454,7 +1501,7 @@
         <v>505550</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1483,7 +1530,7 @@
         <v>631500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1512,7 +1559,7 @@
         <v>594460</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1541,7 +1588,7 @@
         <v>419730</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1570,7 +1617,7 @@
         <v>591800</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1599,7 +1646,7 @@
         <v>689700</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1628,7 +1675,7 @@
         <v>351940</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1657,7 +1704,7 @@
         <v>470810</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1686,7 +1733,7 @@
         <v>629950</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1715,7 +1762,7 @@
         <v>387510</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -1744,7 +1791,7 @@
         <v>480190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1781,15 +1828,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC525E7-C1FA-459D-B5D0-3649A3A73FD5}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1797,7 +1844,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -1818,7 +1865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1847,7 +1894,7 @@
         <v>570240</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1876,7 +1923,7 @@
         <v>505550</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1905,7 +1952,7 @@
         <v>631500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1934,7 +1981,7 @@
         <v>594460</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1963,7 +2010,7 @@
         <v>419730</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1983,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="G7">
-        <v>7711200</v>
+        <v>6711200</v>
       </c>
       <c r="H7">
         <v>2800000</v>
@@ -1992,7 +2039,7 @@
         <v>591800</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2021,7 +2068,7 @@
         <v>689700</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -2050,7 +2097,7 @@
         <v>351940</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -2079,9 +2126,9 @@
         <v>470810</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>6009</v>
@@ -2099,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="G11">
-        <v>9504840</v>
+        <v>6504840</v>
       </c>
       <c r="H11">
         <v>2400000</v>
@@ -2108,9 +2155,9 @@
         <v>629950</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
         <v>6010</v>
@@ -2137,9 +2184,9 @@
         <v>387510</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>6011</v>
@@ -2166,9 +2213,9 @@
         <v>480190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>6012</v>
@@ -2186,13 +2233,477 @@
         <v>22</v>
       </c>
       <c r="G14">
-        <v>8217480</v>
+        <v>7217480</v>
       </c>
       <c r="H14">
         <v>2800000</v>
       </c>
       <c r="I14">
         <v>442420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6013</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>6337760</v>
+      </c>
+      <c r="H15">
+        <v>2800000</v>
+      </c>
+      <c r="I15">
+        <v>487720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6014</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>5433930</v>
+      </c>
+      <c r="H16">
+        <v>2400000</v>
+      </c>
+      <c r="I16">
+        <v>422640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6015</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>6006490</v>
+      </c>
+      <c r="H17">
+        <v>2800000</v>
+      </c>
+      <c r="I17">
+        <v>464770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6016</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>4862620</v>
+      </c>
+      <c r="H18">
+        <v>2400000</v>
+      </c>
+      <c r="I18">
+        <v>307860</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>6040240</v>
+      </c>
+      <c r="H19">
+        <v>2800000</v>
+      </c>
+      <c r="I19">
+        <v>491580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <v>4872030</v>
+      </c>
+      <c r="H20">
+        <v>2800000</v>
+      </c>
+      <c r="I20">
+        <v>499660</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6019</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>5610020</v>
+      </c>
+      <c r="H21">
+        <v>2800000</v>
+      </c>
+      <c r="I21">
+        <v>495120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6020</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>5318840</v>
+      </c>
+      <c r="H22">
+        <v>2400000</v>
+      </c>
+      <c r="I22">
+        <v>798020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6021</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>5112720</v>
+      </c>
+      <c r="H23">
+        <v>2800000</v>
+      </c>
+      <c r="I23">
+        <v>430180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6022</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>6044910</v>
+      </c>
+      <c r="H24">
+        <v>2400000</v>
+      </c>
+      <c r="I24">
+        <v>403370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6023</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>5406160</v>
+      </c>
+      <c r="H25">
+        <v>2400000</v>
+      </c>
+      <c r="I25">
+        <v>461260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26">
+        <v>6524420</v>
+      </c>
+      <c r="H26">
+        <v>2800000</v>
+      </c>
+      <c r="I26">
+        <v>424910</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6025</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>6552980</v>
+      </c>
+      <c r="H27">
+        <v>2800000</v>
+      </c>
+      <c r="I27">
+        <v>463220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6026</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>22</v>
+      </c>
+      <c r="G28">
+        <v>5406160</v>
+      </c>
+      <c r="H28">
+        <v>2400000</v>
+      </c>
+      <c r="I28">
+        <v>461260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6027</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>22</v>
+      </c>
+      <c r="G29">
+        <v>7524420</v>
+      </c>
+      <c r="H29">
+        <v>2800000</v>
+      </c>
+      <c r="I29">
+        <v>424910</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6028</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>22</v>
+      </c>
+      <c r="G30">
+        <v>6552980</v>
+      </c>
+      <c r="H30">
+        <v>2800000</v>
+      </c>
+      <c r="I30">
+        <v>463220</v>
       </c>
     </row>
   </sheetData>
@@ -2205,13 +2716,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0330D018-0C0A-49F0-89B7-FF2665318EF9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2219,7 +2730,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -2240,7 +2751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -2269,7 +2780,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2298,7 +2809,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2327,7 +2838,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2356,7 +2867,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2385,7 +2896,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2414,7 +2925,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2443,7 +2954,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2472,7 +2983,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -2501,7 +3012,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -2530,7 +3041,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2559,7 +3070,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -2579,7 +3090,7 @@
         <v>22</v>
       </c>
       <c r="G13">
-        <v>8524420</v>
+        <v>6524420</v>
       </c>
       <c r="H13">
         <v>2800000</v>
@@ -2588,7 +3099,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2629,7 +3140,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2641,12 +3152,12 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2654,7 +3165,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -2675,7 +3186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -2704,7 +3215,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -2733,7 +3244,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -2762,7 +3273,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2791,7 +3302,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2820,7 +3331,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2849,7 +3360,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2878,7 +3389,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2907,7 +3418,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -2936,7 +3447,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -2965,7 +3476,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -2994,7 +3505,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -3023,7 +3534,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -3063,12 +3574,12 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -3076,7 +3587,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3097,7 +3608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -3105,7 +3616,7 @@
         <v>6000</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -3126,7 +3637,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -3155,7 +3666,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -3184,7 +3695,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -3213,7 +3724,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -3242,7 +3753,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3271,7 +3782,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3300,7 +3811,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3329,7 +3840,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -3358,7 +3869,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -3387,7 +3898,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -3416,7 +3927,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -3436,7 +3947,7 @@
         <v>22</v>
       </c>
       <c r="G13">
-        <v>8524420</v>
+        <v>7524420</v>
       </c>
       <c r="H13">
         <v>2800000</v>
@@ -3445,7 +3956,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
@@ -3461,7 +3972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3473,12 +3984,12 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -3486,7 +3997,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3507,7 +4018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -3536,7 +4047,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -3565,7 +4076,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -3594,7 +4105,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -3623,7 +4134,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -3652,7 +4163,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -3681,7 +4192,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3710,7 +4221,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3739,7 +4250,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3768,7 +4279,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -3797,7 +4308,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -3826,7 +4337,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -3855,7 +4366,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -3894,13 +4405,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B00F72-7A88-4899-8CE5-F67B1C803F3E}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -3908,7 +4419,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3929,7 +4440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -3958,7 +4469,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -3987,7 +4498,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -4016,7 +4527,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -4045,7 +4556,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -4074,7 +4585,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -4103,7 +4614,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -4132,7 +4643,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4161,7 +4672,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4190,7 +4701,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4219,7 +4730,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -4248,7 +4759,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4277,7 +4788,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>8</v>
       </c>

--- a/uploads/급여_리스.xlsx
+++ b/uploads/급여_리스.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9D249F-BDFF-4176-9664-F55CA7554B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924337EA-82E8-4194-B312-5482BEFC4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="01월" sheetId="1" r:id="rId1"/>
@@ -548,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852D1C01-E82A-4AB0-8EA9-B4D0C83AA06B}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,7 +612,7 @@
         <v>2800000</v>
       </c>
       <c r="I2">
-        <v>487720</v>
+        <v>477720</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC525E7-C1FA-459D-B5D0-3649A3A73FD5}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2716,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0330D018-0C0A-49F0-89B7-FF2665318EF9}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/uploads/급여_리스.xlsx
+++ b/uploads/급여_리스.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924337EA-82E8-4194-B312-5482BEFC4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7943B76D-C853-45A6-B1B0-8A53EE9E2112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,7 +612,7 @@
         <v>2800000</v>
       </c>
       <c r="I2">
-        <v>477720</v>
+        <v>477770</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/uploads/급여_리스.xlsx
+++ b/uploads/급여_리스.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7943B76D-C853-45A6-B1B0-8A53EE9E2112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C15C13-F602-46F9-BFA0-EF31A6C3BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="01월" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="44">
   <si>
     <t>i6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>김28</t>
+  </si>
+  <si>
+    <t>i7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -549,15 +553,15 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -586,7 +590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -600,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>22</v>
@@ -615,7 +619,7 @@
         <v>477770</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -644,7 +648,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -673,7 +677,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -702,7 +706,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -731,7 +735,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -760,7 +764,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -789,7 +793,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -818,7 +822,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -847,7 +851,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -876,7 +880,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -905,7 +909,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -934,7 +938,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -975,7 +979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -990,9 +994,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>11</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>11</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>11</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>11</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>11</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -1224,7 +1228,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -1253,7 +1257,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -1282,7 +1286,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1412,9 +1416,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>4</v>
       </c>
@@ -1472,7 +1476,7 @@
         <v>570240</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>505550</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>631500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>594460</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>419730</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>591800</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>689700</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1675,7 +1679,7 @@
         <v>351940</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>470810</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>629950</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>4</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>387510</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>480190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -1834,9 +1838,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>570240</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>505550</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1952,7 +1956,7 @@
         <v>631500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>594460</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>419730</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -2039,7 +2043,7 @@
         <v>591800</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -2068,7 +2072,7 @@
         <v>689700</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -2097,7 +2101,7 @@
         <v>351940</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -2126,7 +2130,7 @@
         <v>470810</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>629950</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>387510</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>480190</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>442420</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -2271,7 +2275,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -2416,7 +2420,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -2474,7 +2478,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -2561,7 +2565,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>463220</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>2</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2720,9 +2724,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -3012,7 +3016,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -3140,7 +3144,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3155,9 +3159,9 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>5</v>
       </c>
@@ -3215,7 +3219,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -3505,7 +3509,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>5</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -3577,9 +3581,9 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -3666,7 +3670,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -3753,7 +3757,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -3927,7 +3931,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
@@ -3972,7 +3976,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3987,9 +3991,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4047,7 +4051,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
@@ -4409,9 +4413,9 @@
       <selection activeCell="G12" sqref="G12:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>487720</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>8</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>422640</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>8</v>
       </c>
@@ -4527,7 +4531,7 @@
         <v>464770</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>8</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>307860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>491580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>8</v>
       </c>
@@ -4614,7 +4618,7 @@
         <v>499660</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>495120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>798020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -4701,7 +4705,7 @@
         <v>430180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -4730,7 +4734,7 @@
         <v>403370</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -4759,7 +4763,7 @@
         <v>461260</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4788,7 +4792,7 @@
         <v>424910</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>

--- a/uploads/급여_리스.xlsx
+++ b/uploads/급여_리스.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\HanMi\ERP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C15C13-F602-46F9-BFA0-EF31A6C3BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18453C7-A0DD-4CC9-BCE7-33CED56DD234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33410158-1FCC-471B-96FE-A3658D8E7CFC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="43">
   <si>
     <t>i6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>김28</t>
-  </si>
-  <si>
-    <t>i7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>22</v>
